--- a/DataFiles_Excel/MulitLevelPieChart/HHSMLPChartTable.xlsx
+++ b/DataFiles_Excel/MulitLevelPieChart/HHSMLPChartTable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ide\Desktop\html2excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="HHSMLPChartTable" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="54">
   <si>
     <t>2016 Total Discretionary Grant Dollars</t>
   </si>
@@ -34,6 +34,153 @@
   </si>
   <si>
     <t>Discretionary Award Dollars</t>
+  </si>
+  <si>
+    <t>2016 Discretionary Grant Dollars By Category Table</t>
+  </si>
+  <si>
+    <t>This table displays the total discretionary grant dollars awarded in FY 2016 grouped by category. It is provided as a text alternative to the interactive chart on the Awards page of this website.</t>
+  </si>
+  <si>
+    <t>HHS Total Award Amounts Description</t>
+  </si>
+  <si>
+    <t>Number of grant dollars HHS awarded in FY 2016 by agency.</t>
+  </si>
+  <si>
+    <t>Category Description</t>
+  </si>
+  <si>
+    <t>Total Award Amount</t>
+  </si>
+  <si>
+    <t>Total Award Amount Percent</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>2016 Discretionary Grant Dollars By Activity and Category Table</t>
+  </si>
+  <si>
+    <t>This table displays the total discretionary grant dollars awarded in FY 2016 grouped by category and activity type. It is provided as a text alternative to the interactive chart on the Awards page of this website.</t>
+  </si>
+  <si>
+    <t>Activity Desription</t>
+  </si>
+  <si>
+    <t>Award Amount Percent within the Category</t>
+  </si>
+  <si>
+    <t>CONSTRUCTION</t>
+  </si>
+  <si>
+    <t>PLANNING</t>
+  </si>
+  <si>
+    <t>EVALUATION</t>
+  </si>
+  <si>
+    <t>FELLOWSHIP/SCHOLARSHIP/STUDENT LOANS</t>
+  </si>
+  <si>
+    <t>KDA (KNOWLEDGE/DEVELOPMENT/APPLICATION)</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>SOCIAL SCIENCE RESEARCH (INCLUDES SURVEYS)</t>
+  </si>
+  <si>
+    <t>SCIENTIFIC/HEALTH RESEARCH (INCLUDES SURVEYS)</t>
+  </si>
+  <si>
+    <t>DEMONSTRATION</t>
+  </si>
+  <si>
+    <t>SOCIAL SERVICES</t>
+  </si>
+  <si>
+    <t>HEALTH SERVICES</t>
+  </si>
+  <si>
+    <t>TECHNICAL ASSISTANCE</t>
+  </si>
+  <si>
+    <t>TRAINING/TRAINEESHIP</t>
+  </si>
+  <si>
+    <t>2016 Discretionary Grant Dollars By Organization, Activity and Category Table</t>
+  </si>
+  <si>
+    <t>This table displays the total discretionary grant dollars awarded in FY 2016 grouped by organzation, activity and category. It is provided as a text alternative to the interactive chart on the Awards page of this website.</t>
+  </si>
+  <si>
+    <t>Number of grant dollars HHS awarded in FY 2016 grouped by agency and activity.</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Activity Description</t>
+  </si>
+  <si>
+    <t>Award Amount Percent within the Activity</t>
+  </si>
+  <si>
+    <t>HRSA</t>
+  </si>
+  <si>
+    <t>ACL</t>
+  </si>
+  <si>
+    <t>OASH</t>
+  </si>
+  <si>
+    <t>IHS</t>
+  </si>
+  <si>
+    <t>ACF</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>AHRQ</t>
+  </si>
+  <si>
+    <t>NIH</t>
+  </si>
+  <si>
+    <t>ONC</t>
+  </si>
+  <si>
+    <t>OGA</t>
+  </si>
+  <si>
+    <t>FDA</t>
+  </si>
+  <si>
+    <t>ASPE</t>
+  </si>
+  <si>
+    <t>ASPR</t>
+  </si>
+  <si>
+    <t>SAMHSA</t>
+  </si>
+  <si>
+    <t>CDC</t>
   </si>
 </sst>
 </file>
@@ -543,8 +690,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -557,10 +706,19 @@
     <xf numFmtId="6" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -920,64 +1078,1925 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>52814771803</v>
       </c>
     </row>
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1290848927</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="7">
+        <v>22673200521</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="7">
+        <v>26513749217</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="7">
+        <v>2336973138</v>
+      </c>
+      <c r="C24" s="8">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="7">
+        <v>-12423030</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="7">
+        <v>11846838</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="7">
+        <v>14315766</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="7">
+        <v>203554485</v>
+      </c>
+      <c r="D38" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="7">
+        <v>283778289</v>
+      </c>
+      <c r="D39" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>789776579</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
+        <v>50588998</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="E41" s="8">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="7">
+        <v>22622611523</v>
+      </c>
+      <c r="D42" s="8">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="E42" s="8">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="7">
+        <v>2512306339</v>
+      </c>
+      <c r="D43" s="8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E43" s="8">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="7">
+        <v>10567768820</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="7">
+        <v>13433674058</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0.254</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="7">
+        <v>172191288</v>
+      </c>
+      <c r="D46" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E46" s="8">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2164781850</v>
+      </c>
+      <c r="D47" s="8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E47" s="8">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A49" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="7">
+        <v>-12423030</v>
+      </c>
+      <c r="E58" s="8">
+        <v>0</v>
+      </c>
+      <c r="F58" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="7">
+        <v>110549590</v>
+      </c>
+      <c r="E59" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="F59" s="8">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="7">
+        <v>122422597</v>
+      </c>
+      <c r="E60" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="F60" s="8">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="7">
+        <v>142386593</v>
+      </c>
+      <c r="E61" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F61" s="8">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="7">
+        <v>203538100</v>
+      </c>
+      <c r="E62" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F62" s="8">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="7">
+        <v>261594897</v>
+      </c>
+      <c r="E63" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="7">
+        <v>1671814562</v>
+      </c>
+      <c r="E64" s="8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F64" s="8">
+        <v>0.66600000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="7">
+        <v>2114813</v>
+      </c>
+      <c r="E65" s="8">
+        <v>0</v>
+      </c>
+      <c r="F65" s="8">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="7">
+        <v>12200953</v>
+      </c>
+      <c r="E66" s="8">
+        <v>0</v>
+      </c>
+      <c r="F66" s="8">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="7">
+        <v>425001</v>
+      </c>
+      <c r="E67" s="8">
+        <v>0</v>
+      </c>
+      <c r="F67" s="8">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="7">
+        <v>63884422</v>
+      </c>
+      <c r="E68" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="F68" s="8">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="7">
+        <v>139245062</v>
+      </c>
+      <c r="E69" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F69" s="8">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="7">
+        <v>428766</v>
+      </c>
+      <c r="E70" s="8">
+        <v>0</v>
+      </c>
+      <c r="F70" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="7">
+        <v>2297026</v>
+      </c>
+      <c r="E71" s="8">
+        <v>0</v>
+      </c>
+      <c r="F71" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="7">
+        <v>1300000</v>
+      </c>
+      <c r="E72" s="8">
+        <v>0</v>
+      </c>
+      <c r="F72" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="7">
+        <v>400000</v>
+      </c>
+      <c r="E73" s="8">
+        <v>0</v>
+      </c>
+      <c r="F73" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="7">
+        <v>1900000</v>
+      </c>
+      <c r="E74" s="8">
+        <v>0</v>
+      </c>
+      <c r="F74" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="7">
+        <v>4217793</v>
+      </c>
+      <c r="E75" s="8">
+        <v>0</v>
+      </c>
+      <c r="F75" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="7">
+        <v>47417850</v>
+      </c>
+      <c r="E76" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="F76" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="7">
+        <v>252644686</v>
+      </c>
+      <c r="E77" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F77" s="8">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="7">
+        <v>350023616</v>
+      </c>
+      <c r="E78" s="8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F78" s="8">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="7">
+        <v>994909236</v>
+      </c>
+      <c r="E79" s="8">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F79" s="8">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="7">
+        <v>5134653514</v>
+      </c>
+      <c r="E80" s="8">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F80" s="8">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="7">
+        <v>6643481571</v>
+      </c>
+      <c r="E81" s="8">
+        <v>0.126</v>
+      </c>
+      <c r="F81" s="8">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="7">
+        <v>850000</v>
+      </c>
+      <c r="E82" s="8">
+        <v>0</v>
+      </c>
+      <c r="F82" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="7">
+        <v>3960000</v>
+      </c>
+      <c r="E83" s="8">
+        <v>0</v>
+      </c>
+      <c r="F83" s="8">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="7">
+        <v>24998160</v>
+      </c>
+      <c r="E84" s="8">
+        <v>0</v>
+      </c>
+      <c r="F84" s="8">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="7">
+        <v>73441230</v>
+      </c>
+      <c r="E85" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="F85" s="8">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="7">
+        <v>82323278</v>
+      </c>
+      <c r="E86" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="F86" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="7">
+        <v>98205621</v>
+      </c>
+      <c r="E87" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="F87" s="8">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="7">
+        <v>-5258113</v>
+      </c>
+      <c r="E88" s="8">
+        <v>0</v>
+      </c>
+      <c r="F88" s="8">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="7">
+        <v>4685716</v>
+      </c>
+      <c r="E89" s="8">
+        <v>0</v>
+      </c>
+      <c r="F89" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="7">
+        <v>7867376</v>
+      </c>
+      <c r="E90" s="8">
+        <v>0</v>
+      </c>
+      <c r="F90" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="7">
+        <v>35108536</v>
+      </c>
+      <c r="E91" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="F91" s="8">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="7">
+        <v>41550228</v>
+      </c>
+      <c r="E92" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="F92" s="8">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="7">
+        <v>134568964</v>
+      </c>
+      <c r="E93" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="F93" s="8">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="7">
+        <v>148440111</v>
+      </c>
+      <c r="E94" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F94" s="8">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="7">
+        <v>181935692</v>
+      </c>
+      <c r="E95" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F95" s="8">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="7">
+        <v>240878069</v>
+      </c>
+      <c r="E96" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F96" s="8">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="7">
+        <v>4332233</v>
+      </c>
+      <c r="E97" s="8">
+        <v>0</v>
+      </c>
+      <c r="F97" s="8">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="7">
+        <v>7514605</v>
+      </c>
+      <c r="E98" s="8">
+        <v>0</v>
+      </c>
+      <c r="F98" s="8">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="7">
+        <v>19580283</v>
+      </c>
+      <c r="E99" s="8">
+        <v>0</v>
+      </c>
+      <c r="F99" s="8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="7">
+        <v>82824678</v>
+      </c>
+      <c r="E100" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="F100" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="7">
+        <v>98931593</v>
+      </c>
+      <c r="E101" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="F101" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="7">
+        <v>900156343</v>
+      </c>
+      <c r="E102" s="8">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F102" s="8">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="7">
+        <v>21521118626</v>
+      </c>
+      <c r="E103" s="8">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="F103" s="8">
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="7">
+        <v>1761000</v>
+      </c>
+      <c r="E104" s="8">
+        <v>0</v>
+      </c>
+      <c r="F104" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="7">
+        <v>120000</v>
+      </c>
+      <c r="E105" s="8">
+        <v>0</v>
+      </c>
+      <c r="F105" s="8">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="7">
+        <v>419288</v>
+      </c>
+      <c r="E106" s="8">
+        <v>0</v>
+      </c>
+      <c r="F106" s="8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="7">
+        <v>14917917</v>
+      </c>
+      <c r="E107" s="8">
+        <v>0</v>
+      </c>
+      <c r="F107" s="8">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="7">
+        <v>33370793</v>
+      </c>
+      <c r="E108" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="F108" s="8">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="7">
+        <v>-159790349</v>
+      </c>
+      <c r="E109" s="8">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="F109" s="8">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="7">
+        <v>2727237</v>
+      </c>
+      <c r="E110" s="8">
+        <v>0</v>
+      </c>
+      <c r="F110" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="7">
+        <v>30418467</v>
+      </c>
+      <c r="E111" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="F111" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="7">
+        <v>459318386</v>
+      </c>
+      <c r="E112" s="8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F112" s="8">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="7">
+        <v>618044551</v>
+      </c>
+      <c r="E113" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F113" s="8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="7">
+        <v>9617050528</v>
+      </c>
+      <c r="E114" s="8">
+        <v>0.182</v>
+      </c>
+      <c r="F114" s="8">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="7">
+        <v>-380430</v>
+      </c>
+      <c r="E115" s="8">
+        <v>0</v>
+      </c>
+      <c r="F115" s="8">
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="7">
+        <v>921500</v>
+      </c>
+      <c r="E116" s="8">
+        <v>0</v>
+      </c>
+      <c r="F116" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="7">
+        <v>0</v>
+      </c>
+      <c r="E117" s="8">
+        <v>0</v>
+      </c>
+      <c r="F117" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="7">
+        <v>5198599</v>
+      </c>
+      <c r="E118" s="8">
+        <v>0</v>
+      </c>
+      <c r="F118" s="8">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="7">
+        <v>16496839</v>
+      </c>
+      <c r="E119" s="8">
+        <v>0</v>
+      </c>
+      <c r="F119" s="8">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="7">
+        <v>149954780</v>
+      </c>
+      <c r="E120" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F120" s="8">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="7">
+        <v>4956546</v>
+      </c>
+      <c r="E121" s="8">
+        <v>0</v>
+      </c>
+      <c r="F121" s="8">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="7">
+        <v>9837557</v>
+      </c>
+      <c r="E122" s="8">
+        <v>0</v>
+      </c>
+      <c r="F122" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="7">
+        <v>25097917</v>
+      </c>
+      <c r="E123" s="8">
+        <v>0</v>
+      </c>
+      <c r="F123" s="8">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="7">
+        <v>26380748</v>
+      </c>
+      <c r="E124" s="8">
+        <v>0</v>
+      </c>
+      <c r="F124" s="8">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="7">
+        <v>30545505</v>
+      </c>
+      <c r="E125" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="F125" s="8">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="7">
+        <v>33333995</v>
+      </c>
+      <c r="E126" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="F126" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="7">
+        <v>687306446</v>
+      </c>
+      <c r="E127" s="8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F127" s="8">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="7">
+        <v>1347323136</v>
+      </c>
+      <c r="E128" s="8">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F128" s="8">
+        <v>0.622</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
+  <mergeCells count="12">
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataFiles_Excel/MulitLevelPieChart/HHSMLPChartTable.xlsx
+++ b/DataFiles_Excel/MulitLevelPieChart/HHSMLPChartTable.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ide\Desktop\html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cacigcc-my.sharepoint.com/personal/ashley_smith_caci_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
   </bookViews>
   <sheets>
     <sheet name="HHSMLPChartTable" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="54">
   <si>
     <t>2016 Total Discretionary Grant Dollars</t>
   </si>
@@ -713,14 +713,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1080,87 +1080,89 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>52814771803</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1182,7 +1184,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
@@ -1193,7 +1195,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
@@ -1204,7 +1206,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
@@ -1215,49 +1217,49 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:5" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>18</v>
       </c>
@@ -1274,11 +1276,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="7">
@@ -1291,11 +1293,11 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="7">
@@ -1308,11 +1310,11 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="7">
@@ -1325,11 +1327,11 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="7">
@@ -1342,11 +1344,11 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="7">
@@ -1359,11 +1361,11 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="7">
@@ -1376,11 +1378,11 @@
         <v>0.61199999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="7">
@@ -1393,11 +1395,11 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="7">
@@ -1410,11 +1412,11 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="7">
@@ -1427,11 +1429,11 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="7">
@@ -1444,11 +1446,11 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="7">
@@ -1461,11 +1463,11 @@
         <v>0.50700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="7">
@@ -1478,11 +1480,11 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="7">
@@ -1495,53 +1497,53 @@
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A49" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="12"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="12"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>36</v>
       </c>
@@ -1561,1433 +1563,1416 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="9">
         <v>-12423030</v>
       </c>
-      <c r="E58" s="8">
-        <v>0</v>
-      </c>
-      <c r="F58" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="9">
+        <v>0</v>
+      </c>
+      <c r="F58" s="9">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="9">
+        <v>261594897</v>
+      </c>
+      <c r="E59" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F59" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B60" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D60" s="9">
         <v>110549590</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E60" s="9">
         <v>2E-3</v>
       </c>
-      <c r="F59" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="F60" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="9">
+        <v>1671814562</v>
+      </c>
+      <c r="E61" s="9">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F61" s="9">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B62" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C62" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D62" s="9">
         <v>122422597</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E62" s="9">
         <v>2E-3</v>
       </c>
-      <c r="F60" s="8">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="F62" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="9">
+        <v>203538100</v>
+      </c>
+      <c r="E63" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F63" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B64" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C64" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D64" s="9">
         <v>142386593</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E64" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F61" s="8">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="7">
-        <v>203538100</v>
-      </c>
-      <c r="E62" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F62" s="8">
-        <v>8.1000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="7">
-        <v>261594897</v>
-      </c>
-      <c r="E63" s="8">
+      <c r="F64" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F63" s="8">
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="7">
-        <v>1671814562</v>
-      </c>
-      <c r="E64" s="8">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F64" s="8">
-        <v>0.66600000000000004</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="9">
         <v>2114813</v>
       </c>
-      <c r="E65" s="8">
-        <v>0</v>
-      </c>
-      <c r="F65" s="8">
-        <v>0.14799999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="9">
+        <v>0</v>
+      </c>
+      <c r="F65" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="9">
         <v>12200953</v>
       </c>
-      <c r="E66" s="8">
-        <v>0</v>
-      </c>
-      <c r="F66" s="8">
-        <v>0.85199999999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="9">
+        <v>0</v>
+      </c>
+      <c r="F66" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="9">
         <v>425001</v>
       </c>
-      <c r="E67" s="8">
-        <v>0</v>
-      </c>
-      <c r="F67" s="8">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="9">
+        <v>0</v>
+      </c>
+      <c r="F67" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="9">
         <v>63884422</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E68" s="9">
         <v>1E-3</v>
       </c>
-      <c r="F68" s="8">
-        <v>0.314</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="9">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="9">
         <v>139245062</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F69" s="8">
-        <v>0.68400000000000005</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="9">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="9">
+        <v>350023616</v>
+      </c>
+      <c r="E70" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F70" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="9">
+        <v>1900000</v>
+      </c>
+      <c r="E71" s="9">
+        <v>0</v>
+      </c>
+      <c r="F71" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="9">
+        <v>47417850</v>
+      </c>
+      <c r="E72" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="F72" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="9">
+        <v>5134653514</v>
+      </c>
+      <c r="E73" s="9">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F73" s="9">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B74" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C74" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D74" s="9">
         <v>428766</v>
       </c>
-      <c r="E70" s="8">
-        <v>0</v>
-      </c>
-      <c r="F70" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="E74" s="9">
+        <v>0</v>
+      </c>
+      <c r="F74" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="9">
+        <v>400000</v>
+      </c>
+      <c r="E75" s="9">
+        <v>0</v>
+      </c>
+      <c r="F75" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="9">
+        <v>6643481571</v>
+      </c>
+      <c r="E76" s="9">
+        <v>0.126</v>
+      </c>
+      <c r="F76" s="9">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="9">
+        <v>4217793</v>
+      </c>
+      <c r="E77" s="9">
+        <v>0</v>
+      </c>
+      <c r="F77" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="9">
+        <v>252644686</v>
+      </c>
+      <c r="E78" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F78" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="9">
+        <v>1300000</v>
+      </c>
+      <c r="E79" s="9">
+        <v>0</v>
+      </c>
+      <c r="F79" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B80" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C80" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D80" s="9">
         <v>2297026</v>
       </c>
-      <c r="E71" s="8">
-        <v>0</v>
-      </c>
-      <c r="F71" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" s="12" t="s">
+      <c r="E80" s="9">
+        <v>0</v>
+      </c>
+      <c r="F80" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C81" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="7">
-        <v>1300000</v>
-      </c>
-      <c r="E72" s="8">
-        <v>0</v>
-      </c>
-      <c r="F72" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="D81" s="9">
+        <v>994909236</v>
+      </c>
+      <c r="E81" s="9">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F81" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="9">
+        <v>73441230</v>
+      </c>
+      <c r="E82" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="F82" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="9">
+        <v>82323278</v>
+      </c>
+      <c r="E83" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="F83" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="7">
-        <v>400000</v>
-      </c>
-      <c r="E73" s="8">
-        <v>0</v>
-      </c>
-      <c r="F73" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="7">
-        <v>1900000</v>
-      </c>
-      <c r="E74" s="8">
-        <v>0</v>
-      </c>
-      <c r="F74" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="B84" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="9">
+        <v>98205621</v>
+      </c>
+      <c r="E84" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="F84" s="9">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="9">
+        <v>3960000</v>
+      </c>
+      <c r="E85" s="9">
+        <v>0</v>
+      </c>
+      <c r="F85" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B75" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="7">
-        <v>4217793</v>
-      </c>
-      <c r="E75" s="8">
-        <v>0</v>
-      </c>
-      <c r="F75" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="B86" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="9">
+        <v>24998160</v>
+      </c>
+      <c r="E86" s="9">
+        <v>0</v>
+      </c>
+      <c r="F86" s="9">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="9">
+        <v>850000</v>
+      </c>
+      <c r="E87" s="9">
+        <v>0</v>
+      </c>
+      <c r="F87" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="9">
+        <v>181935692</v>
+      </c>
+      <c r="E88" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F88" s="9">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="9">
+        <v>134568964</v>
+      </c>
+      <c r="E89" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F89" s="9">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="7">
-        <v>47417850</v>
-      </c>
-      <c r="E76" s="8">
+      <c r="B90" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="9">
+        <v>4685716</v>
+      </c>
+      <c r="E90" s="9">
+        <v>0</v>
+      </c>
+      <c r="F90" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="9">
+        <v>240878069</v>
+      </c>
+      <c r="E91" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F91" s="9">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="9">
+        <v>148440111</v>
+      </c>
+      <c r="E92" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F92" s="9">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="9">
+        <v>41550228</v>
+      </c>
+      <c r="E93" s="9">
         <v>1E-3</v>
       </c>
-      <c r="F76" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+      <c r="F93" s="9">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="9">
+        <v>35108536</v>
+      </c>
+      <c r="E94" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="F94" s="9">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B77" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="7">
-        <v>252644686</v>
-      </c>
-      <c r="E77" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F77" s="8">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="7">
-        <v>350023616</v>
-      </c>
-      <c r="E78" s="8">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F78" s="8">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="7">
-        <v>994909236</v>
-      </c>
-      <c r="E79" s="8">
-        <v>1.9E-2</v>
-      </c>
-      <c r="F79" s="8">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="7">
-        <v>5134653514</v>
-      </c>
-      <c r="E80" s="8">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="F80" s="8">
-        <v>0.38200000000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="7">
-        <v>6643481571</v>
-      </c>
-      <c r="E81" s="8">
-        <v>0.126</v>
-      </c>
-      <c r="F81" s="8">
-        <v>0.49399999999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C82" s="12" t="s">
+      <c r="B95" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="7">
-        <v>850000</v>
-      </c>
-      <c r="E82" s="8">
-        <v>0</v>
-      </c>
-      <c r="F82" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C83" s="12" t="s">
+      <c r="D95" s="9">
+        <v>7867376</v>
+      </c>
+      <c r="E95" s="9">
+        <v>0</v>
+      </c>
+      <c r="F95" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="7">
-        <v>3960000</v>
-      </c>
-      <c r="E83" s="8">
-        <v>0</v>
-      </c>
-      <c r="F83" s="8">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="7">
-        <v>24998160</v>
-      </c>
-      <c r="E84" s="8">
-        <v>0</v>
-      </c>
-      <c r="F84" s="8">
-        <v>8.7999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="7">
-        <v>73441230</v>
-      </c>
-      <c r="E85" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F85" s="8">
-        <v>0.25900000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="7">
-        <v>82323278</v>
-      </c>
-      <c r="E86" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="F86" s="8">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="7">
-        <v>98205621</v>
-      </c>
-      <c r="E87" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="F87" s="8">
-        <v>0.34599999999999997</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="7">
+      <c r="D96" s="9">
         <v>-5258113</v>
       </c>
-      <c r="E88" s="8">
-        <v>0</v>
-      </c>
-      <c r="F88" s="8">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="7">
-        <v>4685716</v>
-      </c>
-      <c r="E89" s="8">
-        <v>0</v>
-      </c>
-      <c r="F89" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="7">
-        <v>7867376</v>
-      </c>
-      <c r="E90" s="8">
-        <v>0</v>
-      </c>
-      <c r="F90" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="7">
-        <v>35108536</v>
-      </c>
-      <c r="E91" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F91" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="7">
-        <v>41550228</v>
-      </c>
-      <c r="E92" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F92" s="8">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="7">
-        <v>134568964</v>
-      </c>
-      <c r="E93" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="F93" s="8">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="7">
-        <v>148440111</v>
-      </c>
-      <c r="E94" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F94" s="8">
-        <v>0.188</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="7">
-        <v>181935692</v>
-      </c>
-      <c r="E95" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F95" s="8">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="7">
-        <v>240878069</v>
-      </c>
-      <c r="E96" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F96" s="8">
-        <v>0.30499999999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E96" s="9">
+        <v>0</v>
+      </c>
+      <c r="F96" s="9">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="C97" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" s="9">
         <v>4332233</v>
       </c>
-      <c r="E97" s="8">
-        <v>0</v>
-      </c>
-      <c r="F97" s="8">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E97" s="9">
+        <v>0</v>
+      </c>
+      <c r="F97" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="C98" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="9">
         <v>7514605</v>
       </c>
-      <c r="E98" s="8">
-        <v>0</v>
-      </c>
-      <c r="F98" s="8">
-        <v>0.63400000000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="E98" s="9">
+        <v>0</v>
+      </c>
+      <c r="F98" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="9">
+        <v>98931593</v>
+      </c>
+      <c r="E99" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="F99" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="9">
+        <v>900156343</v>
+      </c>
+      <c r="E100" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F100" s="9">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="9">
+        <v>82824678</v>
+      </c>
+      <c r="E101" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="F101" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B102" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C102" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D102" s="9">
         <v>19580283</v>
       </c>
-      <c r="E99" s="8">
-        <v>0</v>
-      </c>
-      <c r="F99" s="8">
+      <c r="E102" s="9">
+        <v>0</v>
+      </c>
+      <c r="F102" s="9">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="7">
-        <v>82824678</v>
-      </c>
-      <c r="E100" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="F100" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" s="7">
-        <v>98931593</v>
-      </c>
-      <c r="E101" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="F101" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D102" s="7">
-        <v>900156343</v>
-      </c>
-      <c r="E102" s="8">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="F102" s="8">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="C103" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D103" s="9">
         <v>21521118626</v>
       </c>
-      <c r="E103" s="8">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="F103" s="8">
-        <v>0.95099999999999996</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="E103" s="9">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="F103" s="9">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B104" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C104" s="12" t="s">
+      <c r="C104" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D104" s="7">
-        <v>1761000</v>
-      </c>
-      <c r="E104" s="8">
-        <v>0</v>
-      </c>
-      <c r="F104" s="8">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="D104" s="9">
+        <v>33370793</v>
+      </c>
+      <c r="E104" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="F104" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B105" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D105" s="7">
-        <v>120000</v>
-      </c>
-      <c r="E105" s="8">
-        <v>0</v>
-      </c>
-      <c r="F105" s="8">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="D105" s="9">
+        <v>14917917</v>
+      </c>
+      <c r="E105" s="9">
+        <v>0</v>
+      </c>
+      <c r="F105" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D106" s="9">
         <v>419288</v>
       </c>
-      <c r="E106" s="8">
-        <v>0</v>
-      </c>
-      <c r="F106" s="8">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="E106" s="9">
+        <v>0</v>
+      </c>
+      <c r="F106" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B107" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="C107" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D107" s="7">
-        <v>14917917</v>
-      </c>
-      <c r="E107" s="8">
-        <v>0</v>
-      </c>
-      <c r="F107" s="8">
-        <v>0.29499999999999998</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="D107" s="9">
+        <v>120000</v>
+      </c>
+      <c r="E107" s="9">
+        <v>0</v>
+      </c>
+      <c r="F107" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="9">
+        <v>1761000</v>
+      </c>
+      <c r="E108" s="9">
+        <v>0</v>
+      </c>
+      <c r="F108" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B108" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" s="7">
-        <v>33370793</v>
-      </c>
-      <c r="E108" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F108" s="8">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="C109" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="7">
-        <v>-159790349</v>
-      </c>
-      <c r="E109" s="8">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="F109" s="8">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D109" s="9">
+        <v>9617050528</v>
+      </c>
+      <c r="E109" s="9">
+        <v>0.182</v>
+      </c>
+      <c r="F109" s="9">
+        <v>0.36299999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C110" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D110" s="9">
         <v>2727237</v>
       </c>
-      <c r="E110" s="8">
-        <v>0</v>
-      </c>
-      <c r="F110" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E110" s="9">
+        <v>0</v>
+      </c>
+      <c r="F110" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C111" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D111" s="9">
         <v>30418467</v>
       </c>
-      <c r="E111" s="8">
+      <c r="E111" s="9">
         <v>1E-3</v>
       </c>
-      <c r="F111" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B112" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C112" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D112" s="7">
-        <v>459318386</v>
-      </c>
-      <c r="E112" s="8">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F112" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D112" s="9">
+        <v>-159790349</v>
+      </c>
+      <c r="E112" s="9">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="F112" s="9">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C113" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D113" s="9">
         <v>618044551</v>
       </c>
-      <c r="E113" s="8">
+      <c r="E113" s="9">
         <v>1.2E-2</v>
       </c>
-      <c r="F113" s="8">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="9">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="9">
+        <v>459318386</v>
+      </c>
+      <c r="E114" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F114" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B114" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" s="7">
-        <v>9617050528</v>
-      </c>
-      <c r="E114" s="8">
-        <v>0.182</v>
-      </c>
-      <c r="F114" s="8">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="C115" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D115" s="7">
-        <v>-380430</v>
-      </c>
-      <c r="E115" s="8">
-        <v>0</v>
-      </c>
-      <c r="F115" s="8">
-        <v>-2E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D115" s="9">
+        <v>5198599</v>
+      </c>
+      <c r="E115" s="9">
+        <v>0</v>
+      </c>
+      <c r="F115" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C116" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D116" s="9">
         <v>921500</v>
       </c>
-      <c r="E116" s="8">
-        <v>0</v>
-      </c>
-      <c r="F116" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E116" s="9">
+        <v>0</v>
+      </c>
+      <c r="F116" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B117" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B117" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="C117" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="7">
-        <v>0</v>
-      </c>
-      <c r="E117" s="8">
-        <v>0</v>
-      </c>
-      <c r="F117" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D117" s="9">
+        <v>149954780</v>
+      </c>
+      <c r="E117" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F117" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B118" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="C118" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D118" s="7">
-        <v>5198599</v>
-      </c>
-      <c r="E118" s="8">
-        <v>0</v>
-      </c>
-      <c r="F118" s="8">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D118" s="9">
+        <v>-380430</v>
+      </c>
+      <c r="E118" s="9">
+        <v>0</v>
+      </c>
+      <c r="F118" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C119" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D119" s="9">
         <v>16496839</v>
       </c>
-      <c r="E119" s="8">
-        <v>0</v>
-      </c>
-      <c r="F119" s="8">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E119" s="9">
+        <v>0</v>
+      </c>
+      <c r="F119" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="9">
+        <v>25097917</v>
+      </c>
+      <c r="E120" s="9">
+        <v>0</v>
+      </c>
+      <c r="F120" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="9">
+        <v>30545505</v>
+      </c>
+      <c r="E121" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="F121" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="9">
+        <v>26380748</v>
+      </c>
+      <c r="E122" s="9">
+        <v>0</v>
+      </c>
+      <c r="F122" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="9">
+        <v>33333995</v>
+      </c>
+      <c r="E123" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="F123" s="9">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B120" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C120" s="12" t="s">
+      <c r="B124" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C124" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D120" s="7">
-        <v>149954780</v>
-      </c>
-      <c r="E120" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F120" s="8">
-        <v>0.871</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
+      <c r="D124" s="9">
+        <v>687306446</v>
+      </c>
+      <c r="E124" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F124" s="9">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="9">
+        <v>1347323136</v>
+      </c>
+      <c r="E125" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F125" s="9">
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B126" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C126" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D126" s="9">
         <v>4956546</v>
       </c>
-      <c r="E121" s="8">
-        <v>0</v>
-      </c>
-      <c r="F121" s="8">
+      <c r="E126" s="9">
+        <v>0</v>
+      </c>
+      <c r="F126" s="9">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B127" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C122" s="12" t="s">
+      <c r="C127" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D127" s="9">
         <v>9837557</v>
       </c>
-      <c r="E122" s="8">
-        <v>0</v>
-      </c>
-      <c r="F122" s="8">
+      <c r="E127" s="9">
+        <v>0</v>
+      </c>
+      <c r="F127" s="9">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" s="7">
-        <v>25097917</v>
-      </c>
-      <c r="E123" s="8">
-        <v>0</v>
-      </c>
-      <c r="F123" s="8">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" s="7">
-        <v>26380748</v>
-      </c>
-      <c r="E124" s="8">
-        <v>0</v>
-      </c>
-      <c r="F124" s="8">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" s="7">
-        <v>30545505</v>
-      </c>
-      <c r="E125" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F125" s="8">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" s="7">
-        <v>33333995</v>
-      </c>
-      <c r="E126" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="F126" s="8">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" s="7">
-        <v>687306446</v>
-      </c>
-      <c r="E127" s="8">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F127" s="8">
-        <v>0.318</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" s="7">
-        <v>1347323136</v>
-      </c>
-      <c r="E128" s="8">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="F128" s="8">
-        <v>0.622</v>
-      </c>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="5"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:F55"/>
     <mergeCell ref="A56:F56"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
@@ -2995,6 +2980,11 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:F55"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DataFiles_Excel/MulitLevelPieChart/HHSMLPChartTable.xlsx
+++ b/DataFiles_Excel/MulitLevelPieChart/HHSMLPChartTable.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="HHSMLPChartTable" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -187,8 +187,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -646,7 +648,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -689,8 +691,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -715,15 +718,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -751,6 +755,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -1081,7 +1086,7 @@
   <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="A56" sqref="A56:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,26 +1144,26 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
     </row>
@@ -1228,7 +1233,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="11"/>
@@ -1237,14 +1242,14 @@
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="11"/>
@@ -1253,7 +1258,7 @@
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1508,7 +1513,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B53" s="11"/>
@@ -1518,7 +1523,7 @@
       <c r="F53" s="11"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -1526,7 +1531,7 @@
       <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B55" s="11"/>
@@ -1536,7 +1541,7 @@
       <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -1573,13 +1578,13 @@
       <c r="C58" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="13">
         <v>-12423030</v>
       </c>
-      <c r="E58" s="9">
-        <v>0</v>
-      </c>
-      <c r="F58" s="9">
+      <c r="E58" s="8">
+        <v>0</v>
+      </c>
+      <c r="F58" s="8">
         <v>-0.01</v>
       </c>
     </row>
@@ -1593,13 +1598,13 @@
       <c r="C59" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="13">
         <v>261594897</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="8">
         <v>0.01</v>
       </c>
     </row>
@@ -1613,13 +1618,13 @@
       <c r="C60" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="13">
         <v>110549590</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="8">
         <v>2E-3</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -1633,13 +1638,13 @@
       <c r="C61" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="13">
         <v>1671814562</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="8">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="8">
         <v>6.3E-2</v>
       </c>
     </row>
@@ -1653,13 +1658,13 @@
       <c r="C62" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="13">
         <v>122422597</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="8">
         <v>2E-3</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -1673,13 +1678,13 @@
       <c r="C63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="13">
         <v>203538100</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -1693,13 +1698,13 @@
       <c r="C64" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="13">
         <v>142386593</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -1713,13 +1718,13 @@
       <c r="C65" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="13">
         <v>2114813</v>
       </c>
-      <c r="E65" s="9">
-        <v>0</v>
-      </c>
-      <c r="F65" s="9">
+      <c r="E65" s="8">
+        <v>0</v>
+      </c>
+      <c r="F65" s="8">
         <v>2E-3</v>
       </c>
     </row>
@@ -1733,13 +1738,13 @@
       <c r="C66" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="13">
         <v>12200953</v>
       </c>
-      <c r="E66" s="9">
-        <v>0</v>
-      </c>
-      <c r="F66" s="9">
+      <c r="E66" s="8">
+        <v>0</v>
+      </c>
+      <c r="F66" s="8">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -1753,13 +1758,13 @@
       <c r="C67" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="13">
         <v>425001</v>
       </c>
-      <c r="E67" s="9">
-        <v>0</v>
-      </c>
-      <c r="F67" s="9">
+      <c r="E67" s="8">
+        <v>0</v>
+      </c>
+      <c r="F67" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1773,13 +1778,13 @@
       <c r="C68" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="13">
         <v>63884422</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="8">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
@@ -1793,13 +1798,13 @@
       <c r="C69" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="13">
         <v>139245062</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F69" s="8">
         <v>0.108</v>
       </c>
     </row>
@@ -1813,13 +1818,13 @@
       <c r="C70" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="13">
         <v>350023616</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F70" s="8">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
@@ -1833,13 +1838,13 @@
       <c r="C71" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="13">
         <v>1900000</v>
       </c>
-      <c r="E71" s="9">
-        <v>0</v>
-      </c>
-      <c r="F71" s="9">
+      <c r="E71" s="8">
+        <v>0</v>
+      </c>
+      <c r="F71" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1853,13 +1858,13 @@
       <c r="C72" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="13">
         <v>47417850</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="8">
         <v>2E-3</v>
       </c>
     </row>
@@ -1873,13 +1878,13 @@
       <c r="C73" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="13">
         <v>5134653514</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="8">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="8">
         <v>0.19400000000000001</v>
       </c>
     </row>
@@ -1893,13 +1898,13 @@
       <c r="C74" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="13">
         <v>428766</v>
       </c>
-      <c r="E74" s="9">
-        <v>0</v>
-      </c>
-      <c r="F74" s="9">
+      <c r="E74" s="8">
+        <v>0</v>
+      </c>
+      <c r="F74" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1913,13 +1918,13 @@
       <c r="C75" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="13">
         <v>400000</v>
       </c>
-      <c r="E75" s="9">
-        <v>0</v>
-      </c>
-      <c r="F75" s="9">
+      <c r="E75" s="8">
+        <v>0</v>
+      </c>
+      <c r="F75" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1933,13 +1938,13 @@
       <c r="C76" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="13">
         <v>6643481571</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="8">
         <v>0.126</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F76" s="8">
         <v>0.251</v>
       </c>
     </row>
@@ -1953,13 +1958,13 @@
       <c r="C77" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="13">
         <v>4217793</v>
       </c>
-      <c r="E77" s="9">
-        <v>0</v>
-      </c>
-      <c r="F77" s="9">
+      <c r="E77" s="8">
+        <v>0</v>
+      </c>
+      <c r="F77" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1973,13 +1978,13 @@
       <c r="C78" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="13">
         <v>252644686</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F78" s="8">
         <v>0.01</v>
       </c>
     </row>
@@ -1993,13 +1998,13 @@
       <c r="C79" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="13">
         <v>1300000</v>
       </c>
-      <c r="E79" s="9">
-        <v>0</v>
-      </c>
-      <c r="F79" s="9">
+      <c r="E79" s="8">
+        <v>0</v>
+      </c>
+      <c r="F79" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2013,13 +2018,13 @@
       <c r="C80" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="13">
         <v>2297026</v>
       </c>
-      <c r="E80" s="9">
-        <v>0</v>
-      </c>
-      <c r="F80" s="9">
+      <c r="E80" s="8">
+        <v>0</v>
+      </c>
+      <c r="F80" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2033,13 +2038,13 @@
       <c r="C81" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="13">
         <v>994909236</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="8">
         <v>1.9E-2</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F81" s="8">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
@@ -2053,13 +2058,13 @@
       <c r="C82" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D82" s="13">
         <v>73441230</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F82" s="8">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
@@ -2073,13 +2078,13 @@
       <c r="C83" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="13">
         <v>82323278</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="8">
         <v>2E-3</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F83" s="8">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
@@ -2093,13 +2098,13 @@
       <c r="C84" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D84" s="13">
         <v>98205621</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="8">
         <v>2E-3</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F84" s="8">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
@@ -2113,13 +2118,13 @@
       <c r="C85" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="13">
         <v>3960000</v>
       </c>
-      <c r="E85" s="9">
-        <v>0</v>
-      </c>
-      <c r="F85" s="9">
+      <c r="E85" s="8">
+        <v>0</v>
+      </c>
+      <c r="F85" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -2133,13 +2138,13 @@
       <c r="C86" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D86" s="13">
         <v>24998160</v>
       </c>
-      <c r="E86" s="9">
-        <v>0</v>
-      </c>
-      <c r="F86" s="9">
+      <c r="E86" s="8">
+        <v>0</v>
+      </c>
+      <c r="F86" s="8">
         <v>1.9E-2</v>
       </c>
     </row>
@@ -2153,13 +2158,13 @@
       <c r="C87" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="13">
         <v>850000</v>
       </c>
-      <c r="E87" s="9">
-        <v>0</v>
-      </c>
-      <c r="F87" s="9">
+      <c r="E87" s="8">
+        <v>0</v>
+      </c>
+      <c r="F87" s="8">
         <v>1E-3</v>
       </c>
     </row>
@@ -2173,13 +2178,13 @@
       <c r="C88" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="13">
         <v>181935692</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F88" s="8">
         <v>0.14099999999999999</v>
       </c>
     </row>
@@ -2193,13 +2198,13 @@
       <c r="C89" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="13">
         <v>134568964</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F89" s="8">
         <v>0.104</v>
       </c>
     </row>
@@ -2213,13 +2218,13 @@
       <c r="C90" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="13">
         <v>4685716</v>
       </c>
-      <c r="E90" s="9">
-        <v>0</v>
-      </c>
-      <c r="F90" s="9">
+      <c r="E90" s="8">
+        <v>0</v>
+      </c>
+      <c r="F90" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -2233,13 +2238,13 @@
       <c r="C91" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="13">
         <v>240878069</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F91" s="8">
         <v>0.187</v>
       </c>
     </row>
@@ -2253,13 +2258,13 @@
       <c r="C92" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="13">
         <v>148440111</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F92" s="8">
         <v>0.115</v>
       </c>
     </row>
@@ -2273,13 +2278,13 @@
       <c r="C93" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="13">
         <v>41550228</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F93" s="8">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
@@ -2293,13 +2298,13 @@
       <c r="C94" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D94" s="13">
         <v>35108536</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E94" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F94" s="9">
+      <c r="F94" s="8">
         <v>2.7E-2</v>
       </c>
     </row>
@@ -2313,13 +2318,13 @@
       <c r="C95" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D95" s="13">
         <v>7867376</v>
       </c>
-      <c r="E95" s="9">
-        <v>0</v>
-      </c>
-      <c r="F95" s="9">
+      <c r="E95" s="8">
+        <v>0</v>
+      </c>
+      <c r="F95" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -2333,13 +2338,13 @@
       <c r="C96" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D96" s="13">
         <v>-5258113</v>
       </c>
-      <c r="E96" s="9">
-        <v>0</v>
-      </c>
-      <c r="F96" s="9">
+      <c r="E96" s="8">
+        <v>0</v>
+      </c>
+      <c r="F96" s="8">
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
@@ -2353,13 +2358,13 @@
       <c r="C97" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D97" s="9">
+      <c r="D97" s="13">
         <v>4332233</v>
       </c>
-      <c r="E97" s="9">
-        <v>0</v>
-      </c>
-      <c r="F97" s="9">
+      <c r="E97" s="8">
+        <v>0</v>
+      </c>
+      <c r="F97" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -2373,13 +2378,13 @@
       <c r="C98" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98" s="13">
         <v>7514605</v>
       </c>
-      <c r="E98" s="9">
-        <v>0</v>
-      </c>
-      <c r="F98" s="9">
+      <c r="E98" s="8">
+        <v>0</v>
+      </c>
+      <c r="F98" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -2393,13 +2398,13 @@
       <c r="C99" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="13">
         <v>98931593</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E99" s="8">
         <v>2E-3</v>
       </c>
-      <c r="F99" s="9">
+      <c r="F99" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -2413,13 +2418,13 @@
       <c r="C100" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="13">
         <v>900156343</v>
       </c>
-      <c r="E100" s="9">
+      <c r="E100" s="8">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F100" s="9">
+      <c r="F100" s="8">
         <v>0.04</v>
       </c>
     </row>
@@ -2433,13 +2438,13 @@
       <c r="C101" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="13">
         <v>82824678</v>
       </c>
-      <c r="E101" s="9">
+      <c r="E101" s="8">
         <v>2E-3</v>
       </c>
-      <c r="F101" s="9">
+      <c r="F101" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -2453,13 +2458,13 @@
       <c r="C102" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="13">
         <v>19580283</v>
       </c>
-      <c r="E102" s="9">
-        <v>0</v>
-      </c>
-      <c r="F102" s="9">
+      <c r="E102" s="8">
+        <v>0</v>
+      </c>
+      <c r="F102" s="8">
         <v>1E-3</v>
       </c>
     </row>
@@ -2473,13 +2478,13 @@
       <c r="C103" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D103" s="13">
         <v>21521118626</v>
       </c>
-      <c r="E103" s="9">
+      <c r="E103" s="8">
         <v>0.40699999999999997</v>
       </c>
-      <c r="F103" s="9">
+      <c r="F103" s="8">
         <v>0.94899999999999995</v>
       </c>
     </row>
@@ -2493,13 +2498,13 @@
       <c r="C104" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D104" s="13">
         <v>33370793</v>
       </c>
-      <c r="E104" s="9">
+      <c r="E104" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F104" s="9">
+      <c r="F104" s="8">
         <v>1E-3</v>
       </c>
     </row>
@@ -2513,13 +2518,13 @@
       <c r="C105" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D105" s="9">
+      <c r="D105" s="13">
         <v>14917917</v>
       </c>
-      <c r="E105" s="9">
-        <v>0</v>
-      </c>
-      <c r="F105" s="9">
+      <c r="E105" s="8">
+        <v>0</v>
+      </c>
+      <c r="F105" s="8">
         <v>1E-3</v>
       </c>
     </row>
@@ -2533,13 +2538,13 @@
       <c r="C106" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="9">
+      <c r="D106" s="13">
         <v>419288</v>
       </c>
-      <c r="E106" s="9">
-        <v>0</v>
-      </c>
-      <c r="F106" s="9">
+      <c r="E106" s="8">
+        <v>0</v>
+      </c>
+      <c r="F106" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2553,13 +2558,13 @@
       <c r="C107" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D107" s="9">
+      <c r="D107" s="13">
         <v>120000</v>
       </c>
-      <c r="E107" s="9">
-        <v>0</v>
-      </c>
-      <c r="F107" s="9">
+      <c r="E107" s="8">
+        <v>0</v>
+      </c>
+      <c r="F107" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2573,13 +2578,13 @@
       <c r="C108" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D108" s="9">
+      <c r="D108" s="13">
         <v>1761000</v>
       </c>
-      <c r="E108" s="9">
-        <v>0</v>
-      </c>
-      <c r="F108" s="9">
+      <c r="E108" s="8">
+        <v>0</v>
+      </c>
+      <c r="F108" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2593,13 +2598,13 @@
       <c r="C109" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="9">
+      <c r="D109" s="13">
         <v>9617050528</v>
       </c>
-      <c r="E109" s="9">
+      <c r="E109" s="8">
         <v>0.182</v>
       </c>
-      <c r="F109" s="9">
+      <c r="F109" s="8">
         <v>0.36299999999999999</v>
       </c>
     </row>
@@ -2613,13 +2618,13 @@
       <c r="C110" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D110" s="9">
+      <c r="D110" s="13">
         <v>2727237</v>
       </c>
-      <c r="E110" s="9">
-        <v>0</v>
-      </c>
-      <c r="F110" s="9">
+      <c r="E110" s="8">
+        <v>0</v>
+      </c>
+      <c r="F110" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2633,13 +2638,13 @@
       <c r="C111" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D111" s="9">
+      <c r="D111" s="13">
         <v>30418467</v>
       </c>
-      <c r="E111" s="9">
+      <c r="E111" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F111" s="9">
+      <c r="F111" s="8">
         <v>1E-3</v>
       </c>
     </row>
@@ -2653,13 +2658,13 @@
       <c r="C112" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D112" s="9">
+      <c r="D112" s="13">
         <v>-159790349</v>
       </c>
-      <c r="E112" s="9">
+      <c r="E112" s="8">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="F112" s="9">
+      <c r="F112" s="8">
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
@@ -2673,13 +2678,13 @@
       <c r="C113" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D113" s="9">
+      <c r="D113" s="13">
         <v>618044551</v>
       </c>
-      <c r="E113" s="9">
+      <c r="E113" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="F113" s="9">
+      <c r="F113" s="8">
         <v>2.3E-2</v>
       </c>
     </row>
@@ -2693,13 +2698,13 @@
       <c r="C114" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D114" s="9">
+      <c r="D114" s="13">
         <v>459318386</v>
       </c>
-      <c r="E114" s="9">
+      <c r="E114" s="8">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F114" s="9">
+      <c r="F114" s="8">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
@@ -2713,13 +2718,13 @@
       <c r="C115" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D115" s="9">
+      <c r="D115" s="13">
         <v>5198599</v>
       </c>
-      <c r="E115" s="9">
-        <v>0</v>
-      </c>
-      <c r="F115" s="9">
+      <c r="E115" s="8">
+        <v>0</v>
+      </c>
+      <c r="F115" s="8">
         <v>2E-3</v>
       </c>
     </row>
@@ -2733,13 +2738,13 @@
       <c r="C116" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D116" s="9">
+      <c r="D116" s="13">
         <v>921500</v>
       </c>
-      <c r="E116" s="9">
-        <v>0</v>
-      </c>
-      <c r="F116" s="9">
+      <c r="E116" s="8">
+        <v>0</v>
+      </c>
+      <c r="F116" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2753,13 +2758,13 @@
       <c r="C117" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="9">
+      <c r="D117" s="13">
         <v>149954780</v>
       </c>
-      <c r="E117" s="9">
+      <c r="E117" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F117" s="9">
+      <c r="F117" s="8">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
@@ -2773,13 +2778,13 @@
       <c r="C118" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D118" s="9">
+      <c r="D118" s="13">
         <v>-380430</v>
       </c>
-      <c r="E118" s="9">
-        <v>0</v>
-      </c>
-      <c r="F118" s="9">
+      <c r="E118" s="8">
+        <v>0</v>
+      </c>
+      <c r="F118" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2793,13 +2798,13 @@
       <c r="C119" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D119" s="13">
         <v>16496839</v>
       </c>
-      <c r="E119" s="9">
-        <v>0</v>
-      </c>
-      <c r="F119" s="9">
+      <c r="E119" s="8">
+        <v>0</v>
+      </c>
+      <c r="F119" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
@@ -2813,13 +2818,13 @@
       <c r="C120" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D120" s="9">
+      <c r="D120" s="13">
         <v>25097917</v>
       </c>
-      <c r="E120" s="9">
-        <v>0</v>
-      </c>
-      <c r="F120" s="9">
+      <c r="E120" s="8">
+        <v>0</v>
+      </c>
+      <c r="F120" s="8">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
@@ -2833,13 +2838,13 @@
       <c r="C121" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D121" s="9">
+      <c r="D121" s="13">
         <v>30545505</v>
       </c>
-      <c r="E121" s="9">
+      <c r="E121" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F121" s="9">
+      <c r="F121" s="8">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
@@ -2853,13 +2858,13 @@
       <c r="C122" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D122" s="9">
+      <c r="D122" s="13">
         <v>26380748</v>
       </c>
-      <c r="E122" s="9">
-        <v>0</v>
-      </c>
-      <c r="F122" s="9">
+      <c r="E122" s="8">
+        <v>0</v>
+      </c>
+      <c r="F122" s="8">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
@@ -2873,13 +2878,13 @@
       <c r="C123" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D123" s="9">
+      <c r="D123" s="13">
         <v>33333995</v>
       </c>
-      <c r="E123" s="9">
+      <c r="E123" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F123" s="9">
+      <c r="F123" s="8">
         <v>1.4E-2</v>
       </c>
     </row>
@@ -2893,13 +2898,13 @@
       <c r="C124" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D124" s="9">
+      <c r="D124" s="13">
         <v>687306446</v>
       </c>
-      <c r="E124" s="9">
+      <c r="E124" s="8">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F124" s="9">
+      <c r="F124" s="8">
         <v>0.29399999999999998</v>
       </c>
     </row>
@@ -2913,13 +2918,13 @@
       <c r="C125" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D125" s="9">
+      <c r="D125" s="13">
         <v>1347323136</v>
       </c>
-      <c r="E125" s="9">
+      <c r="E125" s="8">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F125" s="9">
+      <c r="F125" s="8">
         <v>0.57699999999999996</v>
       </c>
     </row>
@@ -2933,13 +2938,13 @@
       <c r="C126" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D126" s="9">
+      <c r="D126" s="13">
         <v>4956546</v>
       </c>
-      <c r="E126" s="9">
-        <v>0</v>
-      </c>
-      <c r="F126" s="9">
+      <c r="E126" s="8">
+        <v>0</v>
+      </c>
+      <c r="F126" s="8">
         <v>2E-3</v>
       </c>
     </row>
@@ -2953,13 +2958,13 @@
       <c r="C127" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D127" s="9">
+      <c r="D127" s="13">
         <v>9837557</v>
       </c>
-      <c r="E127" s="9">
-        <v>0</v>
-      </c>
-      <c r="F127" s="9">
+      <c r="E127" s="8">
+        <v>0</v>
+      </c>
+      <c r="F127" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
